--- a/Homework1/Exer2/CadenaSuministro2.xlsx
+++ b/Homework1/Exer2/CadenaSuministro2.xlsx
@@ -4,22 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="12600"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Demanda" sheetId="1" r:id="rId1"/>
+    <sheet name="CostoPF2PE" sheetId="2" r:id="rId2"/>
+    <sheet name="CostoPE2R" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>P</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>R1</t>
   </si>
@@ -31,19 +28,52 @@
   </si>
   <si>
     <t>R4</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>PFX</t>
+  </si>
+  <si>
+    <t>PF1</t>
+  </si>
+  <si>
+    <t>PF2</t>
+  </si>
+  <si>
+    <t>PF3</t>
+  </si>
+  <si>
+    <t>PEX</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -62,12 +92,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,79 +500,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="6">
         <v>1000</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="1">
         <v>1500</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="1">
         <v>800</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="7">
         <v>1200</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="1">
         <v>1500</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="1">
         <v>800</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="1">
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="8">
         <v>1350</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="3">
         <v>1750</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="3">
         <v>1000</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="3">
         <v>3000</v>
       </c>
     </row>
@@ -452,24 +600,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="E2" s="5">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11">
+        <v>7.15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>